--- a/dataExcel/【P2000 _ 至尊威龙 (崭新出厂)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【P2000 _ 至尊威龙 (崭新出厂)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,73 +422,73 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-15 02:34:40</v>
+        <v>2023-09-17 21:48:09</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>59.28</v>
       </c>
       <c r="C8">
-        <v>77.87</v>
+        <v>80.02</v>
       </c>
       <c r="D8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 07:37:41</v>
+        <v>2023-09-18 02:59:29</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>59.18</v>
       </c>
       <c r="C9">
-        <v>75.53</v>
+        <v>86.27</v>
       </c>
       <c r="D9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 04:14:55</v>
+        <v>2023-09-18 08:07:12</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>59.18</v>
       </c>
       <c r="C10">
-        <v>77.56</v>
+        <v>86.56</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 09:37:04</v>
+        <v>2023-09-18 13:19:30</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>86.79</v>
+        <v>85.47</v>
       </c>
       <c r="D11">
         <v>192</v>
@@ -497,24 +497,24 @@
         <v>57</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 14:47:38</v>
+        <v>2023-09-18 18:26:55</v>
       </c>
       <c r="B12">
-        <v>59.39</v>
+        <v>58.6</v>
       </c>
       <c r="C12">
-        <v>84.97</v>
+        <v>86.42</v>
       </c>
       <c r="D12">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>27</v>
@@ -522,339 +522,339 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 19:56:18</v>
+        <v>2023-09-18 23:38:44</v>
       </c>
       <c r="B13">
-        <v>58.68</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>86.72</v>
+        <v>80.67</v>
       </c>
       <c r="D13">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 01:10:59</v>
+        <v>2023-09-19 04:49:42</v>
       </c>
       <c r="B14">
-        <v>58.78</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>85.63</v>
+        <v>85.61</v>
       </c>
       <c r="D14">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E14">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 06:15:42</v>
+        <v>2023-09-19 09:56:33</v>
       </c>
       <c r="B15">
-        <v>59.28</v>
+        <v>62</v>
       </c>
       <c r="C15">
-        <v>86.49</v>
+        <v>85.68</v>
       </c>
       <c r="D15">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E15">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 11:25:40</v>
+        <v>2023-09-19 15:07:49</v>
       </c>
       <c r="B16">
-        <v>59.28</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>77.47</v>
+        <v>85.68</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 16:36:35</v>
+        <v>2023-09-19 20:19:32</v>
       </c>
       <c r="B17">
-        <v>59.39</v>
+        <v>61.9</v>
       </c>
       <c r="C17">
-        <v>80.02</v>
+        <v>80.87</v>
       </c>
       <c r="D17">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 21:48:09</v>
+        <v>2023-09-20 01:26:47</v>
       </c>
       <c r="B18">
-        <v>59.28</v>
+        <v>61.79</v>
       </c>
       <c r="C18">
-        <v>80.02</v>
+        <v>77.73</v>
       </c>
       <c r="D18">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 02:59:29</v>
+        <v>2023-09-20 06:39:13</v>
       </c>
       <c r="B19">
-        <v>59.18</v>
+        <v>62.5</v>
       </c>
       <c r="C19">
-        <v>86.27</v>
+        <v>80.34</v>
       </c>
       <c r="D19">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E19">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 08:07:12</v>
+        <v>2023-09-20 11:48:25</v>
       </c>
       <c r="B20">
-        <v>59.18</v>
+        <v>62.3</v>
       </c>
       <c r="C20">
-        <v>86.56</v>
+        <v>76.18</v>
       </c>
       <c r="D20">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 13:19:30</v>
+        <v>2023-09-20 16:57:13</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>61.99</v>
       </c>
       <c r="C21">
-        <v>85.47</v>
+        <v>76.11</v>
       </c>
       <c r="D21">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E21">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 18:26:55</v>
+        <v>2023-09-20 22:07:18</v>
       </c>
       <c r="B22">
-        <v>58.6</v>
+        <v>62</v>
       </c>
       <c r="C22">
-        <v>86.42</v>
+        <v>79.25</v>
       </c>
       <c r="D22">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E22">
         <v>58</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 23:38:44</v>
+        <v>2023-09-21 03:17:47</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>61.43</v>
       </c>
       <c r="C23">
-        <v>80.67</v>
+        <v>78.01</v>
       </c>
       <c r="D23">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E23">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 04:49:42</v>
+        <v>2023-09-21 08:27:45</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>61.8</v>
       </c>
       <c r="C24">
-        <v>85.61</v>
+        <v>79.72</v>
       </c>
       <c r="D24">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 09:56:33</v>
+        <v>2023-09-21 13:38:14</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>63.99</v>
       </c>
       <c r="C25">
-        <v>85.68</v>
+        <v>75.42</v>
       </c>
       <c r="D25">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 15:07:49</v>
+        <v>2023-09-21 18:47:33</v>
       </c>
       <c r="B26">
+        <v>63.87</v>
+      </c>
+      <c r="C26">
+        <v>77.68</v>
+      </c>
+      <c r="D26">
+        <v>181</v>
+      </c>
+      <c r="E26">
         <v>61</v>
       </c>
-      <c r="C26">
-        <v>85.68</v>
-      </c>
-      <c r="D26">
-        <v>178</v>
-      </c>
-      <c r="E26">
-        <v>59</v>
-      </c>
       <c r="F26">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 20:19:32</v>
+        <v>2023-09-21 23:57:33</v>
       </c>
       <c r="B27">
-        <v>61.9</v>
+        <v>63.87</v>
       </c>
       <c r="C27">
-        <v>80.87</v>
+        <v>79.06</v>
       </c>
       <c r="D27">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E27">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 01:26:47</v>
+        <v>2023-09-22 05:07:48</v>
       </c>
       <c r="B28">
-        <v>61.79</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <v>77.73</v>
+        <v>80.31</v>
       </c>
       <c r="D28">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E28">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 06:39:13</v>
+        <v>2023-09-22 10:17:39</v>
       </c>
       <c r="B29">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>80.34</v>
+        <v>80.39</v>
       </c>
       <c r="D29">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E29">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -862,59 +862,59 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 11:48:25</v>
+        <v>2023-09-22 15:28:43</v>
       </c>
       <c r="B30">
-        <v>62.3</v>
+        <v>61.8</v>
       </c>
       <c r="C30">
-        <v>76.18</v>
+        <v>80.45</v>
       </c>
       <c r="D30">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="E30">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 16:57:13</v>
+        <v>2023-09-22 20:38:29</v>
       </c>
       <c r="B31">
-        <v>61.99</v>
+        <v>60.69</v>
       </c>
       <c r="C31">
-        <v>76.11</v>
+        <v>80.45</v>
       </c>
       <c r="D31">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E31">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 22:07:18</v>
+        <v>2023-09-23 01:47:53</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>59.7</v>
       </c>
       <c r="C32">
-        <v>79.25</v>
+        <v>80.45</v>
       </c>
       <c r="D32">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E32">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>28</v>
@@ -922,56 +922,56 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 03:17:47</v>
+        <v>2023-09-23 06:59:09</v>
       </c>
       <c r="B33">
-        <v>61.43</v>
+        <v>63.39</v>
       </c>
       <c r="C33">
-        <v>78.01</v>
+        <v>79.98</v>
       </c>
       <c r="D33">
         <v>188</v>
       </c>
       <c r="E33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 08:27:45</v>
+        <v>2023-09-23 12:08:08</v>
       </c>
       <c r="B34">
-        <v>61.8</v>
+        <v>63.38</v>
       </c>
       <c r="C34">
-        <v>79.72</v>
+        <v>86.19</v>
       </c>
       <c r="D34">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E34">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 13:38:14</v>
+        <v>2023-09-23 17:18:05</v>
       </c>
       <c r="B35">
-        <v>63.99</v>
+        <v>64.33</v>
       </c>
       <c r="C35">
-        <v>75.42</v>
+        <v>87.29</v>
       </c>
       <c r="D35">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E35">
         <v>60</v>
@@ -982,99 +982,99 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 18:47:33</v>
+        <v>2023-09-23 22:28:03</v>
       </c>
       <c r="B36">
-        <v>63.87</v>
+        <v>64</v>
       </c>
       <c r="C36">
-        <v>77.68</v>
+        <v>86.41</v>
       </c>
       <c r="D36">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 23:57:33</v>
+        <v>2023-09-24 03:30:59</v>
       </c>
       <c r="B37">
-        <v>63.87</v>
+        <v>64</v>
       </c>
       <c r="C37">
-        <v>79.06</v>
+        <v>86.99</v>
       </c>
       <c r="D37">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 05:07:48</v>
+        <v>2023-09-24 08:41:19</v>
       </c>
       <c r="B38">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>86.83</v>
+      </c>
+      <c r="D38">
+        <v>166</v>
+      </c>
+      <c r="E38">
         <v>60</v>
       </c>
-      <c r="C38">
-        <v>80.31</v>
-      </c>
-      <c r="D38">
-        <v>194</v>
-      </c>
-      <c r="E38">
-        <v>61</v>
-      </c>
       <c r="F38">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 10:17:39</v>
+        <v>2023-09-24 13:50:16</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>63.88</v>
       </c>
       <c r="C39">
-        <v>80.39</v>
+        <v>88.73</v>
       </c>
       <c r="D39">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E39">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-22 15:28:43</v>
+        <v>2023-09-24 19:02:19</v>
       </c>
       <c r="B40">
-        <v>61.8</v>
+        <v>63.68</v>
       </c>
       <c r="C40">
-        <v>80.45</v>
+        <v>89.32</v>
       </c>
       <c r="D40">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E40">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>31</v>
@@ -1082,1239 +1082,1239 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 20:38:29</v>
+        <v>2023-09-25 00:10:12</v>
       </c>
       <c r="B41">
-        <v>60.69</v>
+        <v>63.56</v>
       </c>
       <c r="C41">
-        <v>80.45</v>
+        <v>90.04</v>
       </c>
       <c r="D41">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E41">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F41">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 01:47:53</v>
+        <v>2023-09-25 05:20:10</v>
       </c>
       <c r="B42">
-        <v>59.7</v>
+        <v>63.45</v>
       </c>
       <c r="C42">
-        <v>80.45</v>
+        <v>89.97</v>
       </c>
       <c r="D42">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E42">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 06:59:09</v>
+        <v>2023-09-25 10:31:23</v>
       </c>
       <c r="B43">
-        <v>63.39</v>
+        <v>63.56</v>
       </c>
       <c r="C43">
-        <v>79.98</v>
+        <v>89.32</v>
       </c>
       <c r="D43">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E43">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 12:08:08</v>
+        <v>2023-09-25 15:40:18</v>
       </c>
       <c r="B44">
-        <v>63.38</v>
+        <v>63.16</v>
       </c>
       <c r="C44">
-        <v>86.19</v>
+        <v>89.32</v>
       </c>
       <c r="D44">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <v>59</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 17:18:05</v>
+        <v>2023-09-25 20:51:02</v>
       </c>
       <c r="B45">
-        <v>64.33</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>87.29</v>
+        <v>89.24</v>
       </c>
       <c r="D45">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 22:28:03</v>
+        <v>2023-09-26 02:00:24</v>
       </c>
       <c r="B46">
-        <v>64</v>
+        <v>62.9</v>
       </c>
       <c r="C46">
-        <v>86.41</v>
+        <v>88.73</v>
       </c>
       <c r="D46">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 03:30:59</v>
+        <v>2023-09-26 07:11:28</v>
       </c>
       <c r="B47">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
-        <v>86.99</v>
+        <v>88.91</v>
       </c>
       <c r="D47">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 08:41:19</v>
+        <v>2023-09-26 12:20:29</v>
       </c>
       <c r="B48">
-        <v>65</v>
+        <v>62.99</v>
       </c>
       <c r="C48">
-        <v>86.83</v>
+        <v>85.92</v>
       </c>
       <c r="D48">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 13:50:16</v>
+        <v>2023-09-26 17:30:27</v>
       </c>
       <c r="B49">
-        <v>63.88</v>
+        <v>63.66</v>
       </c>
       <c r="C49">
-        <v>88.73</v>
+        <v>83.8</v>
       </c>
       <c r="D49">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F49">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 19:02:19</v>
+        <v>2023-09-26 22:40:26</v>
       </c>
       <c r="B50">
-        <v>63.68</v>
+        <v>63</v>
       </c>
       <c r="C50">
-        <v>89.32</v>
+        <v>85.92</v>
       </c>
       <c r="D50">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E50">
         <v>59</v>
       </c>
       <c r="F50">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 00:10:12</v>
+        <v>2023-09-27 03:50:24</v>
       </c>
       <c r="B51">
-        <v>63.56</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>90.04</v>
+        <v>88.91</v>
       </c>
       <c r="D51">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51">
         <v>58</v>
       </c>
       <c r="F51">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 05:20:10</v>
+        <v>2023-09-27 09:00:54</v>
       </c>
       <c r="B52">
-        <v>63.45</v>
+        <v>61.9</v>
       </c>
       <c r="C52">
-        <v>89.97</v>
+        <v>90.15</v>
       </c>
       <c r="D52">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F52">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 10:31:23</v>
+        <v>2023-09-27 14:12:08</v>
       </c>
       <c r="B53">
-        <v>63.56</v>
+        <v>62.99</v>
       </c>
       <c r="C53">
-        <v>89.32</v>
+        <v>90.15</v>
       </c>
       <c r="D53">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E53">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-25 15:40:18</v>
+        <v>2023-09-27 19:20:34</v>
       </c>
       <c r="B54">
-        <v>63.16</v>
+        <v>63</v>
       </c>
       <c r="C54">
-        <v>89.32</v>
+        <v>90.15</v>
       </c>
       <c r="D54">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E54">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-25 20:51:02</v>
+        <v>2023-09-28 00:30:38</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>62.7</v>
       </c>
       <c r="C55">
-        <v>89.24</v>
+        <v>89.93</v>
       </c>
       <c r="D55">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E55">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 02:00:24</v>
+        <v>2023-09-28 05:41:24</v>
       </c>
       <c r="B56">
-        <v>62.9</v>
+        <v>63</v>
       </c>
       <c r="C56">
-        <v>88.73</v>
+        <v>80.05</v>
       </c>
       <c r="D56">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 07:11:28</v>
+        <v>2023-09-28 10:50:44</v>
       </c>
       <c r="B57">
-        <v>63</v>
+        <v>62.7</v>
       </c>
       <c r="C57">
-        <v>88.91</v>
+        <v>89.92</v>
       </c>
       <c r="D57">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E57">
         <v>58</v>
       </c>
       <c r="F57">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-26 12:20:29</v>
+        <v>2023-09-28 16:00:43</v>
       </c>
       <c r="B58">
-        <v>62.99</v>
+        <v>60.9</v>
       </c>
       <c r="C58">
-        <v>85.92</v>
+        <v>91.31</v>
       </c>
       <c r="D58">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E58">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-26 17:30:27</v>
+        <v>2023-09-28 21:03:49</v>
       </c>
       <c r="B59">
-        <v>63.66</v>
+        <v>59.9</v>
       </c>
       <c r="C59">
-        <v>83.8</v>
+        <v>96.64</v>
       </c>
       <c r="D59">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-26 22:40:26</v>
+        <v>2023-09-29 02:13:47</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>60.87</v>
       </c>
       <c r="C60">
-        <v>85.92</v>
+        <v>100.45</v>
       </c>
       <c r="D60">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E60">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F60">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 03:50:24</v>
+        <v>2023-09-29 07:23:45</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>59.9</v>
       </c>
       <c r="C61">
-        <v>88.91</v>
+        <v>93.38</v>
       </c>
       <c r="D61">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E61">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 09:00:54</v>
+        <v>2023-09-29 12:33:43</v>
       </c>
       <c r="B62">
-        <v>61.9</v>
+        <v>59.8</v>
       </c>
       <c r="C62">
-        <v>90.15</v>
+        <v>96.15</v>
       </c>
       <c r="D62">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E62">
         <v>56</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-27 14:12:08</v>
+        <v>2023-09-29 17:43:42</v>
       </c>
       <c r="B63">
-        <v>62.99</v>
+        <v>59.9</v>
       </c>
       <c r="C63">
-        <v>90.15</v>
+        <v>96.15</v>
       </c>
       <c r="D63">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E63">
         <v>58</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-27 19:20:34</v>
+        <v>2023-09-29 22:53:42</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>59.7</v>
       </c>
       <c r="C64">
-        <v>90.15</v>
+        <v>89.87</v>
       </c>
       <c r="D64">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E64">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F64">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 00:30:38</v>
+        <v>2023-09-30 03:58:36</v>
       </c>
       <c r="B65">
-        <v>62.7</v>
+        <v>59.6</v>
       </c>
       <c r="C65">
-        <v>89.93</v>
+        <v>92.36</v>
       </c>
       <c r="D65">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E65">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 05:41:24</v>
+        <v>2023-09-30 09:08:35</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>59.6</v>
       </c>
       <c r="C66">
-        <v>80.05</v>
+        <v>91.78</v>
       </c>
       <c r="D66">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E66">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 10:50:44</v>
+        <v>2023-09-30 14:18:33</v>
       </c>
       <c r="B67">
-        <v>62.7</v>
+        <v>58.3</v>
       </c>
       <c r="C67">
-        <v>89.92</v>
+        <v>92.07</v>
       </c>
       <c r="D67">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E67">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F67">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-28 16:00:43</v>
+        <v>2023-09-30 19:28:32</v>
       </c>
       <c r="B68">
-        <v>60.9</v>
+        <v>57.98</v>
       </c>
       <c r="C68">
-        <v>91.31</v>
+        <v>87.26</v>
       </c>
       <c r="D68">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E68">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-28 21:03:49</v>
+        <v>2023-10-01 00:38:30</v>
       </c>
       <c r="B69">
-        <v>59.9</v>
+        <v>59.8</v>
       </c>
       <c r="C69">
-        <v>96.64</v>
+        <v>87.77</v>
       </c>
       <c r="D69">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E69">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 02:13:47</v>
+        <v>2023-10-01 05:48:29</v>
       </c>
       <c r="B70">
-        <v>60.87</v>
+        <v>58</v>
       </c>
       <c r="C70">
-        <v>100.45</v>
+        <v>91.62</v>
       </c>
       <c r="D70">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E70">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 07:23:45</v>
+        <v>2023-10-01 10:58:28</v>
       </c>
       <c r="B71">
-        <v>59.9</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>93.38</v>
+        <v>93.3</v>
       </c>
       <c r="D71">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E71">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-29 12:33:43</v>
+        <v>2023-10-01 16:08:28</v>
       </c>
       <c r="B72">
-        <v>59.8</v>
+        <v>58</v>
       </c>
       <c r="C72">
-        <v>96.15</v>
+        <v>98.55</v>
       </c>
       <c r="D72">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E72">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F72">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-29 17:43:42</v>
+        <v>2023-10-01 21:18:26</v>
       </c>
       <c r="B73">
-        <v>59.9</v>
+        <v>59.8</v>
       </c>
       <c r="C73">
-        <v>96.15</v>
+        <v>98.55</v>
       </c>
       <c r="D73">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E73">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F73">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-29 22:53:42</v>
+        <v>2023-10-02 02:28:24</v>
       </c>
       <c r="B74">
-        <v>59.7</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>89.87</v>
+        <v>99.87</v>
       </c>
       <c r="D74">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E74">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 03:58:36</v>
+        <v>2023-10-02 07:38:22</v>
       </c>
       <c r="B75">
-        <v>59.6</v>
+        <v>61.8</v>
       </c>
       <c r="C75">
-        <v>92.36</v>
+        <v>96.84</v>
       </c>
       <c r="D75">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E75">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F75">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-30 09:08:35</v>
+        <v>2023-10-02 12:48:21</v>
       </c>
       <c r="B76">
-        <v>59.6</v>
+        <v>61.8</v>
       </c>
       <c r="C76">
-        <v>91.78</v>
+        <v>93.26</v>
       </c>
       <c r="D76">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E76">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-30 14:18:33</v>
+        <v>2023-10-02 17:58:19</v>
       </c>
       <c r="B77">
-        <v>58.3</v>
+        <v>61.77</v>
       </c>
       <c r="C77">
-        <v>92.07</v>
+        <v>96.91</v>
       </c>
       <c r="D77">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E77">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-30 19:28:32</v>
+        <v>2023-10-02 23:08:17</v>
       </c>
       <c r="B78">
-        <v>57.98</v>
+        <v>61.79</v>
       </c>
       <c r="C78">
-        <v>87.26</v>
+        <v>98.35</v>
       </c>
       <c r="D78">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E78">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 00:38:30</v>
+        <v>2023-10-03 04:18:14</v>
       </c>
       <c r="B79">
-        <v>59.8</v>
+        <v>60.88</v>
       </c>
       <c r="C79">
-        <v>87.77</v>
+        <v>98.12</v>
       </c>
       <c r="D79">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E79">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-01 05:48:29</v>
+        <v>2023-10-03 09:28:12</v>
       </c>
       <c r="B80">
-        <v>58</v>
+        <v>60.88</v>
       </c>
       <c r="C80">
-        <v>91.62</v>
+        <v>98.05</v>
       </c>
       <c r="D80">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E80">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F80">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-01 10:58:28</v>
+        <v>2023-10-03 14:28:52</v>
       </c>
       <c r="B81">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C81">
-        <v>93.3</v>
+        <v>102.21</v>
       </c>
       <c r="D81">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E81">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F81">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-01 16:08:28</v>
+        <v>2023-10-03 19:38:50</v>
       </c>
       <c r="B82">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>98.55</v>
+        <v>86.41</v>
       </c>
       <c r="D82">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E82">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F82">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-01 21:18:26</v>
+        <v>2023-10-04 00:48:49</v>
       </c>
       <c r="B83">
-        <v>59.8</v>
+        <v>61</v>
       </c>
       <c r="C83">
-        <v>98.55</v>
+        <v>98.26</v>
       </c>
       <c r="D83">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E83">
         <v>56</v>
       </c>
       <c r="F83">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 02:28:24</v>
+        <v>2023-10-04 05:49:11</v>
       </c>
       <c r="B84">
-        <v>62</v>
+        <v>61.8</v>
       </c>
       <c r="C84">
-        <v>99.87</v>
+        <v>100.69</v>
       </c>
       <c r="D84">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E84">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F84">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-02 07:38:22</v>
+        <v>2023-10-04 10:59:09</v>
       </c>
       <c r="B85">
-        <v>61.8</v>
+        <v>61.7</v>
       </c>
       <c r="C85">
-        <v>96.84</v>
+        <v>93.93</v>
       </c>
       <c r="D85">
         <v>201</v>
       </c>
       <c r="E85">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-02 12:48:21</v>
+        <v>2023-10-04 16:09:07</v>
       </c>
       <c r="B86">
-        <v>61.8</v>
+        <v>59.9</v>
       </c>
       <c r="C86">
-        <v>93.26</v>
+        <v>97.38</v>
       </c>
       <c r="D86">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E86">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F86">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-02 17:58:19</v>
+        <v>2023-10-04 21:09:34</v>
       </c>
       <c r="B87">
-        <v>61.77</v>
+        <v>60</v>
       </c>
       <c r="C87">
-        <v>96.91</v>
+        <v>98.32</v>
       </c>
       <c r="D87">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E87">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F87">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-02 23:08:17</v>
+        <v>2023-10-05 02:19:32</v>
       </c>
       <c r="B88">
-        <v>61.79</v>
+        <v>61.9</v>
       </c>
       <c r="C88">
-        <v>98.35</v>
+        <v>98.32</v>
       </c>
       <c r="D88">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E88">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F88">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 04:18:14</v>
+        <v>2023-10-05 07:29:31</v>
       </c>
       <c r="B89">
-        <v>60.88</v>
+        <v>64.5</v>
       </c>
       <c r="C89">
-        <v>98.12</v>
+        <v>111.5</v>
       </c>
       <c r="D89">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E89">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F89">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-03 09:28:12</v>
+        <v>2023-10-05 12:35:28</v>
       </c>
       <c r="B90">
-        <v>60.88</v>
+        <v>63.99</v>
       </c>
       <c r="C90">
-        <v>98.05</v>
+        <v>103.22</v>
       </c>
       <c r="D90">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E90">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F90">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-03 14:28:52</v>
+        <v>2023-10-05 17:43:49</v>
       </c>
       <c r="B91">
-        <v>60</v>
+        <v>64.5</v>
       </c>
       <c r="C91">
         <v>102.21</v>
       </c>
       <c r="D91">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E91">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F91">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-03 19:38:50</v>
+        <v>2023-10-05 22:54:24</v>
       </c>
       <c r="B92">
-        <v>61</v>
+        <v>64.5</v>
       </c>
       <c r="C92">
-        <v>86.41</v>
+        <v>98.47</v>
       </c>
       <c r="D92">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E92">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F92">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 00:48:49</v>
+        <v>2023-10-06 04:03:41</v>
       </c>
       <c r="B93">
+        <v>64.98</v>
+      </c>
+      <c r="C93">
+        <v>103.11</v>
+      </c>
+      <c r="D93">
+        <v>186</v>
+      </c>
+      <c r="E93">
         <v>61</v>
       </c>
-      <c r="C93">
-        <v>98.26</v>
-      </c>
-      <c r="D93">
-        <v>205</v>
-      </c>
-      <c r="E93">
-        <v>56</v>
-      </c>
       <c r="F93">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-04 05:49:11</v>
+        <v>2023-10-06 09:14:48</v>
       </c>
       <c r="B94">
-        <v>61.8</v>
+        <v>64.98</v>
       </c>
       <c r="C94">
-        <v>100.69</v>
+        <v>97.42</v>
       </c>
       <c r="D94">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E94">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F94">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-04 10:59:09</v>
+        <v>2023-10-06 14:23:47</v>
       </c>
       <c r="B95">
-        <v>61.7</v>
+        <v>64.98</v>
       </c>
       <c r="C95">
-        <v>93.93</v>
+        <v>103.47</v>
       </c>
       <c r="D95">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E95">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-04 16:09:07</v>
+        <v>2023-10-06 19:33:45</v>
       </c>
       <c r="B96">
-        <v>59.9</v>
+        <v>60.8</v>
       </c>
       <c r="C96">
-        <v>97.38</v>
+        <v>99.08</v>
       </c>
       <c r="D96">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E96">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F96">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-04 21:09:34</v>
+        <v>2023-10-07 00:43:48</v>
       </c>
       <c r="B97">
-        <v>60</v>
+        <v>60.7</v>
       </c>
       <c r="C97">
-        <v>98.32</v>
+        <v>99.51</v>
       </c>
       <c r="D97">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E97">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F97">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 02:19:32</v>
+        <v>2023-10-07 05:54:55</v>
       </c>
       <c r="B98">
         <v>61.9</v>
       </c>
       <c r="C98">
-        <v>98.32</v>
+        <v>93.97</v>
       </c>
       <c r="D98">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E98">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F98">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-05 07:29:31</v>
+        <v>2023-10-07 11:04:36</v>
       </c>
       <c r="B99">
-        <v>64.5</v>
+        <v>61.8</v>
       </c>
       <c r="C99">
-        <v>111.5</v>
+        <v>99.3</v>
       </c>
       <c r="D99">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E99">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F99">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-05 12:35:28</v>
+        <v>2023-10-07 16:14:15</v>
       </c>
       <c r="B100">
-        <v>63.99</v>
+        <v>58.79</v>
       </c>
       <c r="C100">
-        <v>103.22</v>
+        <v>101.31</v>
       </c>
       <c r="D100">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E100">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F100">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-05 17:43:49</v>
+        <v>2023-10-07 21:24:39</v>
       </c>
       <c r="B101">
-        <v>64.5</v>
+        <v>61.8</v>
       </c>
       <c r="C101">
-        <v>102.21</v>
+        <v>101.17</v>
       </c>
       <c r="D101">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E101">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F101">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-05 22:54:24</v>
+        <v>2023-10-08 02:35:10</v>
       </c>
       <c r="B102">
-        <v>64.5</v>
+        <v>61.6</v>
       </c>
       <c r="C102">
-        <v>98.47</v>
+        <v>101.24</v>
       </c>
       <c r="D102">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E102">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>30</v>
@@ -2322,19 +2322,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 04:03:41</v>
+        <v>2023-10-08 07:46:28</v>
       </c>
       <c r="B103">
-        <v>64.98</v>
+        <v>61.5</v>
       </c>
       <c r="C103">
-        <v>103.11</v>
+        <v>101.23</v>
       </c>
       <c r="D103">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E103">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F103">
         <v>30</v>
@@ -2342,119 +2342,119 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-06 09:14:48</v>
+        <v>2023-10-08 12:54:30</v>
       </c>
       <c r="B104">
-        <v>64.98</v>
+        <v>61.7</v>
       </c>
       <c r="C104">
-        <v>97.42</v>
+        <v>99.43</v>
       </c>
       <c r="D104">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E104">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F104">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-06 14:23:47</v>
+        <v>2023-10-08 18:06:54</v>
       </c>
       <c r="B105">
-        <v>64.98</v>
+        <v>61.73</v>
       </c>
       <c r="C105">
-        <v>103.47</v>
+        <v>98.28</v>
       </c>
       <c r="D105">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E105">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F105">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-06 19:33:45</v>
+        <v>2023-10-08 23:14:37</v>
       </c>
       <c r="B106">
-        <v>60.8</v>
+        <v>61.52</v>
       </c>
       <c r="C106">
-        <v>99.08</v>
+        <v>91.09</v>
       </c>
       <c r="D106">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E106">
         <v>59</v>
       </c>
       <c r="F106">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 00:43:48</v>
+        <v>2023-10-09 04:24:31</v>
       </c>
       <c r="B107">
-        <v>60.7</v>
+        <v>61.59</v>
       </c>
       <c r="C107">
-        <v>99.51</v>
+        <v>94.97</v>
       </c>
       <c r="D107">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E107">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F107">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-07 05:54:55</v>
+        <v>2023-10-09 09:34:29</v>
       </c>
       <c r="B108">
-        <v>61.9</v>
+        <v>61.33</v>
       </c>
       <c r="C108">
-        <v>93.97</v>
+        <v>91.3</v>
       </c>
       <c r="D108">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E108">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F108">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-07 11:04:36</v>
+        <v>2023-10-09 14:44:58</v>
       </c>
       <c r="B109">
-        <v>61.8</v>
+        <v>61.19</v>
       </c>
       <c r="C109">
-        <v>99.3</v>
+        <v>93.68</v>
       </c>
       <c r="D109">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E109">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F109">
         <v>27</v>
@@ -2462,682 +2462,762 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-07 16:14:15</v>
+        <v>2023-10-09 19:54:35</v>
       </c>
       <c r="B110">
-        <v>58.79</v>
+        <v>60.89</v>
       </c>
       <c r="C110">
-        <v>101.31</v>
+        <v>93.68</v>
       </c>
       <c r="D110">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E110">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F110">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-07 21:24:39</v>
+        <v>2023-10-10 01:06:23</v>
       </c>
       <c r="B111">
-        <v>61.8</v>
+        <v>60.4</v>
       </c>
       <c r="C111">
-        <v>101.17</v>
+        <v>92.17</v>
       </c>
       <c r="D111">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E111">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 02:35:10</v>
+        <v>2023-10-10 06:15:13</v>
       </c>
       <c r="B112">
-        <v>61.6</v>
+        <v>60.4</v>
       </c>
       <c r="C112">
-        <v>101.24</v>
+        <v>99.32</v>
       </c>
       <c r="D112">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E112">
         <v>58</v>
       </c>
       <c r="F112">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-08 07:46:28</v>
+        <v>2023-10-10 11:24:47</v>
       </c>
       <c r="B113">
-        <v>61.5</v>
+        <v>59.4</v>
       </c>
       <c r="C113">
-        <v>101.23</v>
+        <v>94.79</v>
       </c>
       <c r="D113">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E113">
         <v>58</v>
       </c>
       <c r="F113">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-08 12:54:30</v>
+        <v>2023-10-10 16:35:42</v>
       </c>
       <c r="B114">
-        <v>61.7</v>
+        <v>60.4</v>
       </c>
       <c r="C114">
-        <v>99.43</v>
+        <v>94.79</v>
       </c>
       <c r="D114">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E114">
         <v>58</v>
       </c>
       <c r="F114">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-08 18:06:54</v>
+        <v>2023-10-10 21:45:08</v>
       </c>
       <c r="B115">
-        <v>61.73</v>
+        <v>61.99</v>
       </c>
       <c r="C115">
-        <v>98.28</v>
+        <v>91.73</v>
       </c>
       <c r="D115">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E115">
         <v>59</v>
       </c>
       <c r="F115">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-08 23:14:37</v>
+        <v>2023-10-11 02:55:35</v>
       </c>
       <c r="B116">
-        <v>61.52</v>
+        <v>62</v>
       </c>
       <c r="C116">
-        <v>91.09</v>
+        <v>90.27</v>
       </c>
       <c r="D116">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E116">
         <v>59</v>
       </c>
       <c r="F116">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-09 04:24:31</v>
+        <v>2023-10-11 08:06:12</v>
       </c>
       <c r="B117">
-        <v>61.59</v>
+        <v>61.86</v>
       </c>
       <c r="C117">
-        <v>94.97</v>
+        <v>88.93</v>
       </c>
       <c r="D117">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E117">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F117">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-09 09:34:29</v>
+        <v>2023-10-11 13:15:24</v>
       </c>
       <c r="B118">
-        <v>61.33</v>
+        <v>63.8</v>
       </c>
       <c r="C118">
-        <v>91.3</v>
+        <v>88.93</v>
       </c>
       <c r="D118">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E118">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F118">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-09 14:44:58</v>
+        <v>2023-10-11 18:26:31</v>
       </c>
       <c r="B119">
-        <v>61.19</v>
+        <v>63.8</v>
       </c>
       <c r="C119">
-        <v>93.68</v>
+        <v>97.76</v>
       </c>
       <c r="D119">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E119">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F119">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-09 19:54:35</v>
+        <v>2023-10-11 23:35:38</v>
       </c>
       <c r="B120">
-        <v>60.89</v>
+        <v>63.8</v>
       </c>
       <c r="C120">
-        <v>93.68</v>
+        <v>102.14</v>
       </c>
       <c r="D120">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E120">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F120">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 01:06:23</v>
+        <v>2023-10-12 04:45:25</v>
       </c>
       <c r="B121">
-        <v>60.4</v>
+        <v>63.6</v>
       </c>
       <c r="C121">
-        <v>92.17</v>
+        <v>103.3</v>
       </c>
       <c r="D121">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E121">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F121">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-10 06:15:13</v>
+        <v>2023-10-12 09:55:26</v>
       </c>
       <c r="B122">
-        <v>60.4</v>
+        <v>63</v>
       </c>
       <c r="C122">
-        <v>99.32</v>
+        <v>105.42</v>
       </c>
       <c r="D122">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E122">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F122">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-10 11:24:47</v>
+        <v>2023-10-12 15:05:28</v>
       </c>
       <c r="B123">
-        <v>59.4</v>
+        <v>63</v>
       </c>
       <c r="C123">
-        <v>94.79</v>
+        <v>91.26</v>
       </c>
       <c r="D123">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E123">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F123">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-10 16:35:42</v>
+        <v>2023-10-12 20:16:27</v>
       </c>
       <c r="B124">
-        <v>60.4</v>
+        <v>63.6</v>
       </c>
       <c r="C124">
-        <v>94.79</v>
+        <v>91.26</v>
       </c>
       <c r="D124">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E124">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F124">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-10 21:45:08</v>
+        <v>2023-10-13 01:27:12</v>
       </c>
       <c r="B125">
-        <v>61.99</v>
+        <v>63.5</v>
       </c>
       <c r="C125">
-        <v>91.73</v>
+        <v>94.4</v>
       </c>
       <c r="D125">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E125">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F125">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 02:55:35</v>
+        <v>2023-10-13 06:36:01</v>
       </c>
       <c r="B126">
-        <v>62</v>
+        <v>63.6</v>
       </c>
       <c r="C126">
-        <v>90.27</v>
+        <v>92.74</v>
       </c>
       <c r="D126">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E126">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F126">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-11 08:06:12</v>
+        <v>2023-10-13 11:45:49</v>
       </c>
       <c r="B127">
-        <v>61.86</v>
+        <v>63.1</v>
       </c>
       <c r="C127">
-        <v>88.93</v>
+        <v>92.74</v>
       </c>
       <c r="D127">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E127">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F127">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-11 13:15:24</v>
+        <v>2023-10-13 16:55:45</v>
       </c>
       <c r="B128">
-        <v>63.8</v>
+        <v>63.9</v>
       </c>
       <c r="C128">
-        <v>88.93</v>
+        <v>92.38</v>
       </c>
       <c r="D128">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E128">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F128">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-11 18:26:31</v>
+        <v>2023-10-13 22:05:43</v>
       </c>
       <c r="B129">
-        <v>63.8</v>
+        <v>64.5</v>
       </c>
       <c r="C129">
-        <v>97.76</v>
+        <v>92.74</v>
       </c>
       <c r="D129">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E129">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F129">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-11 23:35:38</v>
+        <v>2023-10-14 03:16:30</v>
       </c>
       <c r="B130">
-        <v>63.8</v>
+        <v>64.9</v>
       </c>
       <c r="C130">
-        <v>102.14</v>
+        <v>89.38</v>
       </c>
       <c r="D130">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E130">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F130">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-12 04:45:25</v>
+        <v>2023-10-14 08:26:42</v>
       </c>
       <c r="B131">
-        <v>63.6</v>
+        <v>64.59</v>
       </c>
       <c r="C131">
-        <v>103.3</v>
+        <v>91.32</v>
       </c>
       <c r="D131">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E131">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F131">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-12 09:55:26</v>
+        <v>2023-10-14 13:37:28</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>64.9</v>
       </c>
       <c r="C132">
-        <v>105.42</v>
+        <v>91.68</v>
       </c>
       <c r="D132">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E132">
         <v>62</v>
       </c>
       <c r="F132">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-12 15:05:28</v>
+        <v>2023-10-14 18:46:08</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C133">
-        <v>91.26</v>
+        <v>97.16</v>
       </c>
       <c r="D133">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E133">
         <v>62</v>
       </c>
       <c r="F133">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-12 20:16:27</v>
+        <v>2023-10-14 23:58:17</v>
       </c>
       <c r="B134">
-        <v>63.6</v>
+        <v>64</v>
       </c>
       <c r="C134">
-        <v>91.26</v>
+        <v>97.82</v>
       </c>
       <c r="D134">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E134">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 01:27:12</v>
+        <v>2023-10-15 05:07:49</v>
       </c>
       <c r="B135">
-        <v>63.5</v>
+        <v>63</v>
       </c>
       <c r="C135">
-        <v>94.4</v>
+        <v>97.95</v>
       </c>
       <c r="D135">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E135">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F135">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-13 06:36:01</v>
+        <v>2023-10-15 10:18:26</v>
       </c>
       <c r="B136">
-        <v>63.6</v>
+        <v>63</v>
       </c>
       <c r="C136">
-        <v>92.74</v>
+        <v>94.37</v>
       </c>
       <c r="D136">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E136">
         <v>61</v>
       </c>
       <c r="F136">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-13 11:45:49</v>
+        <v>2023-10-15 15:27:08</v>
       </c>
       <c r="B137">
-        <v>63.1</v>
+        <v>62</v>
       </c>
       <c r="C137">
-        <v>92.74</v>
+        <v>91.3</v>
       </c>
       <c r="D137">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E137">
         <v>61</v>
       </c>
       <c r="F137">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-13 16:55:45</v>
+        <v>2023-10-15 20:36:37</v>
       </c>
       <c r="B138">
-        <v>63.9</v>
+        <v>62</v>
       </c>
       <c r="C138">
-        <v>92.38</v>
+        <v>91.89</v>
       </c>
       <c r="D138">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E138">
         <v>61</v>
       </c>
       <c r="F138">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-13 22:05:43</v>
+        <v>2023-10-16 01:47:03</v>
       </c>
       <c r="B139">
-        <v>64.5</v>
+        <v>61.2</v>
       </c>
       <c r="C139">
-        <v>92.74</v>
+        <v>94.96</v>
       </c>
       <c r="D139">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="E139">
         <v>61</v>
       </c>
       <c r="F139">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 03:16:30</v>
+        <v>2023-10-16 07:00:29</v>
       </c>
       <c r="B140">
-        <v>64.9</v>
+        <v>59</v>
       </c>
       <c r="C140">
-        <v>89.38</v>
+        <v>88.36</v>
       </c>
       <c r="D140">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E140">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-14 08:26:42</v>
+        <v>2023-10-16 12:08:54</v>
       </c>
       <c r="B141">
-        <v>64.59</v>
+        <v>61.6</v>
       </c>
       <c r="C141">
-        <v>91.32</v>
+        <v>94.46</v>
       </c>
       <c r="D141">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E141">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F141">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-14 13:37:28</v>
+        <v>2023-10-16 17:17:09</v>
       </c>
       <c r="B142">
-        <v>64.9</v>
+        <v>62.8</v>
       </c>
       <c r="C142">
-        <v>91.68</v>
+        <v>94.46</v>
       </c>
       <c r="D142">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E142">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F142">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-14 18:46:08</v>
+        <v>2023-10-16 22:27:16</v>
       </c>
       <c r="B143">
+        <v>63</v>
+      </c>
+      <c r="C143">
+        <v>94.39</v>
+      </c>
+      <c r="D143">
+        <v>193</v>
+      </c>
+      <c r="E143">
+        <v>61</v>
+      </c>
+      <c r="F143">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>2023-10-17 03:37:49</v>
+      </c>
+      <c r="B144">
+        <v>63.78</v>
+      </c>
+      <c r="C144">
+        <v>95.47</v>
+      </c>
+      <c r="D144">
+        <v>186</v>
+      </c>
+      <c r="E144">
+        <v>62</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>2023-10-17 08:49:21</v>
+      </c>
+      <c r="B145">
         <v>64</v>
       </c>
-      <c r="C143">
-        <v>97.16</v>
-      </c>
-      <c r="D143">
-        <v>192</v>
-      </c>
-      <c r="E143">
+      <c r="C145">
+        <v>96.29</v>
+      </c>
+      <c r="D145">
+        <v>184</v>
+      </c>
+      <c r="E145">
         <v>62</v>
       </c>
-      <c r="F143">
-        <v>58</v>
+      <c r="F145">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>2023-10-17 13:59:00</v>
+      </c>
+      <c r="B146">
+        <v>64.59</v>
+      </c>
+      <c r="C146">
+        <v>95.04</v>
+      </c>
+      <c r="D146">
+        <v>181</v>
+      </c>
+      <c r="E146">
+        <v>63</v>
+      </c>
+      <c r="F146">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>2023-10-17 19:07:33</v>
+      </c>
+      <c r="B147">
+        <v>65.9</v>
+      </c>
+      <c r="C147">
+        <v>92.49</v>
+      </c>
+      <c r="D147">
+        <v>167</v>
+      </c>
+      <c r="E147">
+        <v>64</v>
+      </c>
+      <c r="F147">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3229,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F143"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F147"/>
   </ignoredErrors>
 </worksheet>
 </file>